--- a/Data/EC/NIT-9011118490.xlsx
+++ b/Data/EC/NIT-9011118490.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7240FC2-8D92-4A97-99EB-ADDBB534F693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7AA95CF7-9FFC-4460-9749-7795E2D1DAAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2715CD99-89F1-4DD5-9927-2FBD22332BAA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1C9280D1-6E03-47EC-A432-8EE364967B09}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,6 +71,90 @@
     <t>LUIS CARLOS MERCADO CASTELLANO</t>
   </si>
   <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
     <t>1805</t>
   </si>
   <si>
@@ -78,90 +162,6 @@
   </si>
   <si>
     <t>ENGLIS ENRIQUE GARCIA MARQUEZ</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -205,7 +205,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -575,7 +575,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DDF0B4F-A8CA-4B11-1C48-83CDBCD3413A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BDB27CB-8BED-30DD-DA2A-6232E24C418E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -926,28 +926,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE1851FC-2F67-41E8-A7EA-759A26098585}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C62129AB-B7F1-405E-B6BC-D9FE8AB5C7BE}">
   <dimension ref="B2:J79"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
@@ -960,7 +960,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -971,7 +971,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -982,7 +982,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -993,8 +993,8 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1"/>
-    <row r="7" spans="2:10">
+    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
         <v>43</v>
       </c>
@@ -1009,8 +1009,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
-    <row r="9" spans="2:10">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -1025,8 +1025,8 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
-    <row r="11" spans="2:10">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
         <v>44</v>
       </c>
@@ -1041,8 +1041,8 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
-    <row r="13" spans="2:10">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
         <v>45</v>
       </c>
@@ -1061,7 +1061,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1090,7 +1090,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1104,7 +1104,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>27083</v>
+        <v>29166</v>
       </c>
       <c r="G16" s="18">
         <v>781242</v>
@@ -1113,21 +1113,21 @@
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F17" s="18">
-        <v>27083</v>
+        <v>31249</v>
       </c>
       <c r="G17" s="18">
         <v>781242</v>
@@ -1136,7 +1136,7 @@
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
@@ -1147,7 +1147,7 @@
         <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F18" s="18">
         <v>31249</v>
@@ -1159,15 +1159,15 @@
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>14</v>
@@ -1182,7 +1182,7 @@
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
@@ -1205,18 +1205,18 @@
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F21" s="18">
         <v>31249</v>
@@ -1228,7 +1228,7 @@
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
@@ -1239,7 +1239,7 @@
         <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F22" s="18">
         <v>31249</v>
@@ -1251,18 +1251,18 @@
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F23" s="18">
         <v>31249</v>
@@ -1274,18 +1274,18 @@
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F24" s="18">
         <v>31249</v>
@@ -1297,7 +1297,7 @@
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
@@ -1308,7 +1308,7 @@
         <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F25" s="18">
         <v>31249</v>
@@ -1320,18 +1320,18 @@
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F26" s="18">
         <v>31249</v>
@@ -1343,7 +1343,7 @@
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
@@ -1354,7 +1354,7 @@
         <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F27" s="18">
         <v>31249</v>
@@ -1366,7 +1366,7 @@
       <c r="I27" s="19"/>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
@@ -1377,7 +1377,7 @@
         <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F28" s="18">
         <v>31249</v>
@@ -1389,18 +1389,18 @@
       <c r="I28" s="19"/>
       <c r="J28" s="20"/>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F29" s="18">
         <v>31249</v>
@@ -1412,18 +1412,18 @@
       <c r="I29" s="19"/>
       <c r="J29" s="20"/>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F30" s="18">
         <v>31249</v>
@@ -1435,7 +1435,7 @@
       <c r="I30" s="19"/>
       <c r="J30" s="20"/>
     </row>
-    <row r="31" spans="2:10">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
         <v>8</v>
       </c>
@@ -1446,7 +1446,7 @@
         <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F31" s="18">
         <v>31249</v>
@@ -1458,7 +1458,7 @@
       <c r="I31" s="19"/>
       <c r="J31" s="20"/>
     </row>
-    <row r="32" spans="2:10">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
         <v>8</v>
       </c>
@@ -1469,7 +1469,7 @@
         <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F32" s="18">
         <v>31249</v>
@@ -1481,18 +1481,18 @@
       <c r="I32" s="19"/>
       <c r="J32" s="20"/>
     </row>
-    <row r="33" spans="2:10">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F33" s="18">
         <v>31249</v>
@@ -1504,7 +1504,7 @@
       <c r="I33" s="19"/>
       <c r="J33" s="20"/>
     </row>
-    <row r="34" spans="2:10">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
         <v>8</v>
       </c>
@@ -1515,7 +1515,7 @@
         <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F34" s="18">
         <v>31249</v>
@@ -1527,18 +1527,18 @@
       <c r="I34" s="19"/>
       <c r="J34" s="20"/>
     </row>
-    <row r="35" spans="2:10">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F35" s="18">
         <v>31249</v>
@@ -1550,18 +1550,18 @@
       <c r="I35" s="19"/>
       <c r="J35" s="20"/>
     </row>
-    <row r="36" spans="2:10">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F36" s="18">
         <v>31249</v>
@@ -1573,7 +1573,7 @@
       <c r="I36" s="19"/>
       <c r="J36" s="20"/>
     </row>
-    <row r="37" spans="2:10">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
         <v>8</v>
       </c>
@@ -1584,7 +1584,7 @@
         <v>10</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F37" s="18">
         <v>31249</v>
@@ -1596,18 +1596,18 @@
       <c r="I37" s="19"/>
       <c r="J37" s="20"/>
     </row>
-    <row r="38" spans="2:10">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="F38" s="18">
         <v>31249</v>
@@ -1619,7 +1619,7 @@
       <c r="I38" s="19"/>
       <c r="J38" s="20"/>
     </row>
-    <row r="39" spans="2:10">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
         <v>8</v>
       </c>
@@ -1630,7 +1630,7 @@
         <v>10</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="F39" s="18">
         <v>31249</v>
@@ -1642,7 +1642,7 @@
       <c r="I39" s="19"/>
       <c r="J39" s="20"/>
     </row>
-    <row r="40" spans="2:10">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
         <v>8</v>
       </c>
@@ -1653,7 +1653,7 @@
         <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F40" s="18">
         <v>31249</v>
@@ -1665,18 +1665,18 @@
       <c r="I40" s="19"/>
       <c r="J40" s="20"/>
     </row>
-    <row r="41" spans="2:10">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="F41" s="18">
         <v>31249</v>
@@ -1688,18 +1688,18 @@
       <c r="I41" s="19"/>
       <c r="J41" s="20"/>
     </row>
-    <row r="42" spans="2:10">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="F42" s="18">
         <v>31249</v>
@@ -1711,7 +1711,7 @@
       <c r="I42" s="19"/>
       <c r="J42" s="20"/>
     </row>
-    <row r="43" spans="2:10">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="15" t="s">
         <v>8</v>
       </c>
@@ -1722,7 +1722,7 @@
         <v>10</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="F43" s="18">
         <v>31249</v>
@@ -1734,21 +1734,21 @@
       <c r="I43" s="19"/>
       <c r="J43" s="20"/>
     </row>
-    <row r="44" spans="2:10">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="F44" s="18">
-        <v>31249</v>
+        <v>27083</v>
       </c>
       <c r="G44" s="18">
         <v>781242</v>
@@ -1757,21 +1757,21 @@
       <c r="I44" s="19"/>
       <c r="J44" s="20"/>
     </row>
-    <row r="45" spans="2:10">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F45" s="18">
-        <v>31249</v>
+        <v>29166</v>
       </c>
       <c r="G45" s="18">
         <v>781242</v>
@@ -1780,18 +1780,18 @@
       <c r="I45" s="19"/>
       <c r="J45" s="20"/>
     </row>
-    <row r="46" spans="2:10">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="F46" s="18">
         <v>31249</v>
@@ -1803,18 +1803,18 @@
       <c r="I46" s="19"/>
       <c r="J46" s="20"/>
     </row>
-    <row r="47" spans="2:10">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B47" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D47" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E47" s="16" t="s">
         <v>13</v>
-      </c>
-      <c r="E47" s="16" t="s">
-        <v>28</v>
       </c>
       <c r="F47" s="18">
         <v>31249</v>
@@ -1826,18 +1826,18 @@
       <c r="I47" s="19"/>
       <c r="J47" s="20"/>
     </row>
-    <row r="48" spans="2:10">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="F48" s="18">
         <v>31249</v>
@@ -1849,18 +1849,18 @@
       <c r="I48" s="19"/>
       <c r="J48" s="20"/>
     </row>
-    <row r="49" spans="2:10">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B49" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="F49" s="18">
         <v>31249</v>
@@ -1872,18 +1872,18 @@
       <c r="I49" s="19"/>
       <c r="J49" s="20"/>
     </row>
-    <row r="50" spans="2:10">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B50" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F50" s="18">
         <v>31249</v>
@@ -1895,18 +1895,18 @@
       <c r="I50" s="19"/>
       <c r="J50" s="20"/>
     </row>
-    <row r="51" spans="2:10">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B51" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="F51" s="18">
         <v>31249</v>
@@ -1918,18 +1918,18 @@
       <c r="I51" s="19"/>
       <c r="J51" s="20"/>
     </row>
-    <row r="52" spans="2:10">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B52" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F52" s="18">
         <v>31249</v>
@@ -1941,18 +1941,18 @@
       <c r="I52" s="19"/>
       <c r="J52" s="20"/>
     </row>
-    <row r="53" spans="2:10">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B53" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F53" s="18">
         <v>31249</v>
@@ -1964,18 +1964,18 @@
       <c r="I53" s="19"/>
       <c r="J53" s="20"/>
     </row>
-    <row r="54" spans="2:10">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B54" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F54" s="18">
         <v>31249</v>
@@ -1987,18 +1987,18 @@
       <c r="I54" s="19"/>
       <c r="J54" s="20"/>
     </row>
-    <row r="55" spans="2:10">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B55" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="F55" s="18">
         <v>31249</v>
@@ -2010,18 +2010,18 @@
       <c r="I55" s="19"/>
       <c r="J55" s="20"/>
     </row>
-    <row r="56" spans="2:10">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B56" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="F56" s="18">
         <v>31249</v>
@@ -2033,18 +2033,18 @@
       <c r="I56" s="19"/>
       <c r="J56" s="20"/>
     </row>
-    <row r="57" spans="2:10">
+    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B57" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F57" s="18">
         <v>31249</v>
@@ -2056,18 +2056,18 @@
       <c r="I57" s="19"/>
       <c r="J57" s="20"/>
     </row>
-    <row r="58" spans="2:10">
+    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B58" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="F58" s="18">
         <v>31249</v>
@@ -2079,18 +2079,18 @@
       <c r="I58" s="19"/>
       <c r="J58" s="20"/>
     </row>
-    <row r="59" spans="2:10">
+    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B59" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="F59" s="18">
         <v>31249</v>
@@ -2102,18 +2102,18 @@
       <c r="I59" s="19"/>
       <c r="J59" s="20"/>
     </row>
-    <row r="60" spans="2:10">
+    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B60" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="F60" s="18">
         <v>31249</v>
@@ -2125,18 +2125,18 @@
       <c r="I60" s="19"/>
       <c r="J60" s="20"/>
     </row>
-    <row r="61" spans="2:10">
+    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B61" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F61" s="18">
         <v>31249</v>
@@ -2148,18 +2148,18 @@
       <c r="I61" s="19"/>
       <c r="J61" s="20"/>
     </row>
-    <row r="62" spans="2:10">
+    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B62" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F62" s="18">
         <v>31249</v>
@@ -2171,18 +2171,18 @@
       <c r="I62" s="19"/>
       <c r="J62" s="20"/>
     </row>
-    <row r="63" spans="2:10">
+    <row r="63" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B63" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F63" s="18">
         <v>31249</v>
@@ -2194,18 +2194,18 @@
       <c r="I63" s="19"/>
       <c r="J63" s="20"/>
     </row>
-    <row r="64" spans="2:10">
+    <row r="64" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B64" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F64" s="18">
         <v>31249</v>
@@ -2217,18 +2217,18 @@
       <c r="I64" s="19"/>
       <c r="J64" s="20"/>
     </row>
-    <row r="65" spans="2:10">
+    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B65" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F65" s="18">
         <v>31249</v>
@@ -2240,18 +2240,18 @@
       <c r="I65" s="19"/>
       <c r="J65" s="20"/>
     </row>
-    <row r="66" spans="2:10">
+    <row r="66" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B66" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F66" s="18">
         <v>31249</v>
@@ -2263,18 +2263,18 @@
       <c r="I66" s="19"/>
       <c r="J66" s="20"/>
     </row>
-    <row r="67" spans="2:10">
+    <row r="67" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B67" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F67" s="18">
         <v>31249</v>
@@ -2286,18 +2286,18 @@
       <c r="I67" s="19"/>
       <c r="J67" s="20"/>
     </row>
-    <row r="68" spans="2:10">
+    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B68" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F68" s="18">
         <v>31249</v>
@@ -2309,18 +2309,18 @@
       <c r="I68" s="19"/>
       <c r="J68" s="20"/>
     </row>
-    <row r="69" spans="2:10">
+    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B69" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F69" s="18">
         <v>31249</v>
@@ -2332,18 +2332,18 @@
       <c r="I69" s="19"/>
       <c r="J69" s="20"/>
     </row>
-    <row r="70" spans="2:10">
+    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B70" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F70" s="18">
         <v>31249</v>
@@ -2355,18 +2355,18 @@
       <c r="I70" s="19"/>
       <c r="J70" s="20"/>
     </row>
-    <row r="71" spans="2:10">
+    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B71" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F71" s="18">
         <v>31249</v>
@@ -2378,21 +2378,21 @@
       <c r="I71" s="19"/>
       <c r="J71" s="20"/>
     </row>
-    <row r="72" spans="2:10">
+    <row r="72" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B72" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F72" s="18">
-        <v>29166</v>
+        <v>31249</v>
       </c>
       <c r="G72" s="18">
         <v>781242</v>
@@ -2401,21 +2401,21 @@
       <c r="I72" s="19"/>
       <c r="J72" s="20"/>
     </row>
-    <row r="73" spans="2:10">
+    <row r="73" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B73" s="21" t="s">
         <v>8</v>
       </c>
       <c r="C73" s="22" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D73" s="23" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="E73" s="22" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F73" s="24">
-        <v>29166</v>
+        <v>27083</v>
       </c>
       <c r="G73" s="24">
         <v>781242</v>
@@ -2424,7 +2424,7 @@
       <c r="I73" s="25"/>
       <c r="J73" s="26"/>
     </row>
-    <row r="78" spans="2:10">
+    <row r="78" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B78" s="32" t="s">
         <v>51</v>
       </c>
@@ -2435,7 +2435,7 @@
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
     </row>
-    <row r="79" spans="2:10">
+    <row r="79" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B79" s="32" t="s">
         <v>50</v>
       </c>

--- a/Data/EC/NIT-9011118490.xlsx
+++ b/Data/EC/NIT-9011118490.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7AA95CF7-9FFC-4460-9749-7795E2D1DAAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{34D92F16-AFAE-472D-8659-F133C5AB0E3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1C9280D1-6E03-47EC-A432-8EE364967B09}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{473A1A16-25D0-42CD-A9BC-0467C6FEF8FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,97 +71,97 @@
     <t>LUIS CARLOS MERCADO CASTELLANO</t>
   </si>
   <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>11038578</t>
+  </si>
+  <si>
+    <t>ENGLIS ENRIQUE GARCIA MARQUEZ</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
     <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>11038578</t>
-  </si>
-  <si>
-    <t>ENGLIS ENRIQUE GARCIA MARQUEZ</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -205,7 +205,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -260,7 +260,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -273,9 +275,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -475,23 +475,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -519,10 +519,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -575,7 +575,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BDB27CB-8BED-30DD-DA2A-6232E24C418E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2794F5A3-9459-1AB4-8098-56AD5B09401A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -926,28 +926,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C62129AB-B7F1-405E-B6BC-D9FE8AB5C7BE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40600631-C8C7-4D29-8F2A-D325BF3A953D}">
   <dimension ref="B2:J79"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:10">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
@@ -960,7 +960,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:10">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -971,7 +971,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:10">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -982,7 +982,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:10">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -993,8 +993,8 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:10" ht="9" customHeight="1"/>
+    <row r="7" spans="2:10">
       <c r="B7" s="4" t="s">
         <v>43</v>
       </c>
@@ -1009,8 +1009,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
+    <row r="9" spans="2:10">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -1025,8 +1025,8 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
+    <row r="11" spans="2:10">
       <c r="B11" s="4" t="s">
         <v>44</v>
       </c>
@@ -1041,8 +1041,8 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
+    <row r="13" spans="2:10">
       <c r="B13" s="9" t="s">
         <v>45</v>
       </c>
@@ -1061,7 +1061,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:10">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1090,7 +1090,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:10">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1104,7 +1104,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>29166</v>
+        <v>27083</v>
       </c>
       <c r="G16" s="18">
         <v>781242</v>
@@ -1113,21 +1113,21 @@
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:10">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>31249</v>
+        <v>27083</v>
       </c>
       <c r="G17" s="18">
         <v>781242</v>
@@ -1136,7 +1136,7 @@
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:10">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
@@ -1147,7 +1147,7 @@
         <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F18" s="18">
         <v>31249</v>
@@ -1159,15 +1159,15 @@
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:10">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>14</v>
@@ -1182,7 +1182,7 @@
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:10">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
@@ -1205,18 +1205,18 @@
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:10">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F21" s="18">
         <v>31249</v>
@@ -1228,7 +1228,7 @@
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:10">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
@@ -1239,7 +1239,7 @@
         <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F22" s="18">
         <v>31249</v>
@@ -1251,18 +1251,18 @@
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:10">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F23" s="18">
         <v>31249</v>
@@ -1274,7 +1274,7 @@
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:10">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
@@ -1285,7 +1285,7 @@
         <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F24" s="18">
         <v>31249</v>
@@ -1297,18 +1297,18 @@
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:10">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F25" s="18">
         <v>31249</v>
@@ -1320,7 +1320,7 @@
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:10">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
@@ -1331,7 +1331,7 @@
         <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F26" s="18">
         <v>31249</v>
@@ -1343,18 +1343,18 @@
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:10">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F27" s="18">
         <v>31249</v>
@@ -1366,7 +1366,7 @@
       <c r="I27" s="19"/>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:10">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
@@ -1377,7 +1377,7 @@
         <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F28" s="18">
         <v>31249</v>
@@ -1389,18 +1389,18 @@
       <c r="I28" s="19"/>
       <c r="J28" s="20"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:10">
       <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F29" s="18">
         <v>31249</v>
@@ -1412,7 +1412,7 @@
       <c r="I29" s="19"/>
       <c r="J29" s="20"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:10">
       <c r="B30" s="15" t="s">
         <v>8</v>
       </c>
@@ -1423,7 +1423,7 @@
         <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F30" s="18">
         <v>31249</v>
@@ -1435,18 +1435,18 @@
       <c r="I30" s="19"/>
       <c r="J30" s="20"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:10">
       <c r="B31" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F31" s="18">
         <v>31249</v>
@@ -1458,7 +1458,7 @@
       <c r="I31" s="19"/>
       <c r="J31" s="20"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:10">
       <c r="B32" s="15" t="s">
         <v>8</v>
       </c>
@@ -1469,7 +1469,7 @@
         <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F32" s="18">
         <v>31249</v>
@@ -1481,18 +1481,18 @@
       <c r="I32" s="19"/>
       <c r="J32" s="20"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:10">
       <c r="B33" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F33" s="18">
         <v>31249</v>
@@ -1504,7 +1504,7 @@
       <c r="I33" s="19"/>
       <c r="J33" s="20"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:10">
       <c r="B34" s="15" t="s">
         <v>8</v>
       </c>
@@ -1515,7 +1515,7 @@
         <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F34" s="18">
         <v>31249</v>
@@ -1527,18 +1527,18 @@
       <c r="I34" s="19"/>
       <c r="J34" s="20"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:10">
       <c r="B35" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F35" s="18">
         <v>31249</v>
@@ -1550,7 +1550,7 @@
       <c r="I35" s="19"/>
       <c r="J35" s="20"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:10">
       <c r="B36" s="15" t="s">
         <v>8</v>
       </c>
@@ -1561,7 +1561,7 @@
         <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F36" s="18">
         <v>31249</v>
@@ -1573,18 +1573,18 @@
       <c r="I36" s="19"/>
       <c r="J36" s="20"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:10">
       <c r="B37" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="F37" s="18">
         <v>31249</v>
@@ -1596,7 +1596,7 @@
       <c r="I37" s="19"/>
       <c r="J37" s="20"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:10">
       <c r="B38" s="15" t="s">
         <v>8</v>
       </c>
@@ -1607,7 +1607,7 @@
         <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="F38" s="18">
         <v>31249</v>
@@ -1619,18 +1619,18 @@
       <c r="I38" s="19"/>
       <c r="J38" s="20"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:10">
       <c r="B39" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="F39" s="18">
         <v>31249</v>
@@ -1642,7 +1642,7 @@
       <c r="I39" s="19"/>
       <c r="J39" s="20"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:10">
       <c r="B40" s="15" t="s">
         <v>8</v>
       </c>
@@ -1653,7 +1653,7 @@
         <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F40" s="18">
         <v>31249</v>
@@ -1665,18 +1665,18 @@
       <c r="I40" s="19"/>
       <c r="J40" s="20"/>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:10">
       <c r="B41" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="F41" s="18">
         <v>31249</v>
@@ -1688,7 +1688,7 @@
       <c r="I41" s="19"/>
       <c r="J41" s="20"/>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:10">
       <c r="B42" s="15" t="s">
         <v>8</v>
       </c>
@@ -1699,7 +1699,7 @@
         <v>10</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="F42" s="18">
         <v>31249</v>
@@ -1711,18 +1711,18 @@
       <c r="I42" s="19"/>
       <c r="J42" s="20"/>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:10">
       <c r="B43" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="F43" s="18">
         <v>31249</v>
@@ -1734,7 +1734,7 @@
       <c r="I43" s="19"/>
       <c r="J43" s="20"/>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:10">
       <c r="B44" s="15" t="s">
         <v>8</v>
       </c>
@@ -1745,10 +1745,10 @@
         <v>10</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F44" s="18">
-        <v>27083</v>
+        <v>31249</v>
       </c>
       <c r="G44" s="18">
         <v>781242</v>
@@ -1757,21 +1757,21 @@
       <c r="I44" s="19"/>
       <c r="J44" s="20"/>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:10">
       <c r="B45" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="F45" s="18">
-        <v>29166</v>
+        <v>31249</v>
       </c>
       <c r="G45" s="18">
         <v>781242</v>
@@ -1780,18 +1780,18 @@
       <c r="I45" s="19"/>
       <c r="J45" s="20"/>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:10">
       <c r="B46" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="F46" s="18">
         <v>31249</v>
@@ -1803,18 +1803,18 @@
       <c r="I46" s="19"/>
       <c r="J46" s="20"/>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:10">
       <c r="B47" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F47" s="18">
         <v>31249</v>
@@ -1826,18 +1826,18 @@
       <c r="I47" s="19"/>
       <c r="J47" s="20"/>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:10">
       <c r="B48" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="F48" s="18">
         <v>31249</v>
@@ -1849,18 +1849,18 @@
       <c r="I48" s="19"/>
       <c r="J48" s="20"/>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:10">
       <c r="B49" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="F49" s="18">
         <v>31249</v>
@@ -1872,18 +1872,18 @@
       <c r="I49" s="19"/>
       <c r="J49" s="20"/>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:10">
       <c r="B50" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="F50" s="18">
         <v>31249</v>
@@ -1895,18 +1895,18 @@
       <c r="I50" s="19"/>
       <c r="J50" s="20"/>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:10">
       <c r="B51" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F51" s="18">
         <v>31249</v>
@@ -1918,18 +1918,18 @@
       <c r="I51" s="19"/>
       <c r="J51" s="20"/>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:10">
       <c r="B52" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F52" s="18">
         <v>31249</v>
@@ -1941,18 +1941,18 @@
       <c r="I52" s="19"/>
       <c r="J52" s="20"/>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:10">
       <c r="B53" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F53" s="18">
         <v>31249</v>
@@ -1964,18 +1964,18 @@
       <c r="I53" s="19"/>
       <c r="J53" s="20"/>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:10">
       <c r="B54" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F54" s="18">
         <v>31249</v>
@@ -1987,18 +1987,18 @@
       <c r="I54" s="19"/>
       <c r="J54" s="20"/>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:10">
       <c r="B55" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="F55" s="18">
         <v>31249</v>
@@ -2010,18 +2010,18 @@
       <c r="I55" s="19"/>
       <c r="J55" s="20"/>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:10">
       <c r="B56" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="F56" s="18">
         <v>31249</v>
@@ -2033,18 +2033,18 @@
       <c r="I56" s="19"/>
       <c r="J56" s="20"/>
     </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:10">
       <c r="B57" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F57" s="18">
         <v>31249</v>
@@ -2056,18 +2056,18 @@
       <c r="I57" s="19"/>
       <c r="J57" s="20"/>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:10">
       <c r="B58" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="F58" s="18">
         <v>31249</v>
@@ -2079,18 +2079,18 @@
       <c r="I58" s="19"/>
       <c r="J58" s="20"/>
     </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:10">
       <c r="B59" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F59" s="18">
         <v>31249</v>
@@ -2102,18 +2102,18 @@
       <c r="I59" s="19"/>
       <c r="J59" s="20"/>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:10">
       <c r="B60" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="F60" s="18">
         <v>31249</v>
@@ -2125,18 +2125,18 @@
       <c r="I60" s="19"/>
       <c r="J60" s="20"/>
     </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:10">
       <c r="B61" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F61" s="18">
         <v>31249</v>
@@ -2148,18 +2148,18 @@
       <c r="I61" s="19"/>
       <c r="J61" s="20"/>
     </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:10">
       <c r="B62" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F62" s="18">
         <v>31249</v>
@@ -2171,18 +2171,18 @@
       <c r="I62" s="19"/>
       <c r="J62" s="20"/>
     </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:10">
       <c r="B63" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F63" s="18">
         <v>31249</v>
@@ -2194,18 +2194,18 @@
       <c r="I63" s="19"/>
       <c r="J63" s="20"/>
     </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:10">
       <c r="B64" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F64" s="18">
         <v>31249</v>
@@ -2217,18 +2217,18 @@
       <c r="I64" s="19"/>
       <c r="J64" s="20"/>
     </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:10">
       <c r="B65" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F65" s="18">
         <v>31249</v>
@@ -2240,18 +2240,18 @@
       <c r="I65" s="19"/>
       <c r="J65" s="20"/>
     </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:10">
       <c r="B66" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F66" s="18">
         <v>31249</v>
@@ -2263,18 +2263,18 @@
       <c r="I66" s="19"/>
       <c r="J66" s="20"/>
     </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:10">
       <c r="B67" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F67" s="18">
         <v>31249</v>
@@ -2286,18 +2286,18 @@
       <c r="I67" s="19"/>
       <c r="J67" s="20"/>
     </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:10">
       <c r="B68" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F68" s="18">
         <v>31249</v>
@@ -2309,18 +2309,18 @@
       <c r="I68" s="19"/>
       <c r="J68" s="20"/>
     </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:10">
       <c r="B69" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F69" s="18">
         <v>31249</v>
@@ -2332,18 +2332,18 @@
       <c r="I69" s="19"/>
       <c r="J69" s="20"/>
     </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:10">
       <c r="B70" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E70" s="16" t="s">
         <v>40</v>
-      </c>
-      <c r="D70" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E70" s="16" t="s">
-        <v>36</v>
       </c>
       <c r="F70" s="18">
         <v>31249</v>
@@ -2355,18 +2355,18 @@
       <c r="I70" s="19"/>
       <c r="J70" s="20"/>
     </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:10">
       <c r="B71" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E71" s="16" t="s">
         <v>40</v>
-      </c>
-      <c r="D71" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E71" s="16" t="s">
-        <v>37</v>
       </c>
       <c r="F71" s="18">
         <v>31249</v>
@@ -2378,21 +2378,21 @@
       <c r="I71" s="19"/>
       <c r="J71" s="20"/>
     </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:10">
       <c r="B72" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D72" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E72" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="E72" s="16" t="s">
-        <v>38</v>
-      </c>
       <c r="F72" s="18">
-        <v>31249</v>
+        <v>29166</v>
       </c>
       <c r="G72" s="18">
         <v>781242</v>
@@ -2401,21 +2401,21 @@
       <c r="I72" s="19"/>
       <c r="J72" s="20"/>
     </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:10">
       <c r="B73" s="21" t="s">
         <v>8</v>
       </c>
       <c r="C73" s="22" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D73" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E73" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="E73" s="22" t="s">
-        <v>39</v>
-      </c>
       <c r="F73" s="24">
-        <v>27083</v>
+        <v>29166</v>
       </c>
       <c r="G73" s="24">
         <v>781242</v>
@@ -2424,7 +2424,7 @@
       <c r="I73" s="25"/>
       <c r="J73" s="26"/>
     </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:10">
       <c r="B78" s="32" t="s">
         <v>51</v>
       </c>
@@ -2435,7 +2435,7 @@
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
     </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:10">
       <c r="B79" s="32" t="s">
         <v>50</v>
       </c>

--- a/Data/EC/NIT-9011118490.xlsx
+++ b/Data/EC/NIT-9011118490.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{34D92F16-AFAE-472D-8659-F133C5AB0E3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F31C86A-A78F-4588-A28A-7EE3A2E2FC23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{473A1A16-25D0-42CD-A9BC-0467C6FEF8FE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{497E7BA1-A8F9-416D-A971-24A7B37D4404}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -205,7 +205,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -260,9 +260,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -275,7 +273,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -469,29 +469,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -510,19 +510,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -575,7 +581,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2794F5A3-9459-1AB4-8098-56AD5B09401A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{054BC857-1BD2-60C4-51BE-6DF783696220}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -926,80 +932,80 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40600631-C8C7-4D29-8F2A-D325BF3A953D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC137F6F-2ED2-4BC3-BEB4-5B67F005E43B}">
   <dimension ref="B2:J79"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-    </row>
-    <row r="3" spans="2:10">
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-    </row>
-    <row r="4" spans="2:10">
+      <c r="C3" s="30"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-    </row>
-    <row r="5" spans="2:10">
+      <c r="C4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-    </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1"/>
-    <row r="7" spans="2:10">
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+    </row>
+    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
         <v>43</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
@@ -1009,13 +1015,13 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
-    <row r="9" spans="2:10">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="6">
         <v>9011118490</v>
       </c>
@@ -1025,13 +1031,13 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
-    <row r="11" spans="2:10">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
         <v>44</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="7">
         <v>1799944</v>
       </c>
@@ -1041,8 +1047,8 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
-    <row r="13" spans="2:10">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
         <v>45</v>
       </c>
@@ -1061,7 +1067,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1090,7 +1096,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1100,20 +1106,20 @@
       <c r="D16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="19">
         <v>27083</v>
       </c>
-      <c r="G16" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
-    </row>
-    <row r="17" spans="2:10">
+      <c r="G16" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
@@ -1123,20 +1129,20 @@
       <c r="D17" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="19">
         <v>27083</v>
       </c>
-      <c r="G17" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
-    </row>
-    <row r="18" spans="2:10">
+      <c r="G17" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
@@ -1146,20 +1152,20 @@
       <c r="D18" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G18" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
-    </row>
-    <row r="19" spans="2:10">
+      <c r="F18" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G18" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
@@ -1169,20 +1175,20 @@
       <c r="D19" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G19" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
-    </row>
-    <row r="20" spans="2:10">
+      <c r="F19" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G19" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
@@ -1192,20 +1198,20 @@
       <c r="D20" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G20" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
-    </row>
-    <row r="21" spans="2:10">
+      <c r="F20" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G20" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
@@ -1215,20 +1221,20 @@
       <c r="D21" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F21" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G21" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
-    </row>
-    <row r="22" spans="2:10">
+      <c r="F21" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G21" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
@@ -1238,20 +1244,20 @@
       <c r="D22" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F22" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G22" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
-    </row>
-    <row r="23" spans="2:10">
+      <c r="F22" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G22" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
@@ -1261,20 +1267,20 @@
       <c r="D23" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F23" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G23" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
-    </row>
-    <row r="24" spans="2:10">
+      <c r="F23" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G23" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
@@ -1284,20 +1290,20 @@
       <c r="D24" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F24" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G24" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
-    </row>
-    <row r="25" spans="2:10">
+      <c r="F24" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G24" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
@@ -1307,20 +1313,20 @@
       <c r="D25" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F25" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G25" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
-    </row>
-    <row r="26" spans="2:10">
+      <c r="F25" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G25" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="21"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
@@ -1330,20 +1336,20 @@
       <c r="D26" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F26" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G26" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
-    </row>
-    <row r="27" spans="2:10">
+      <c r="F26" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G26" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="21"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
@@ -1353,20 +1359,20 @@
       <c r="D27" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F27" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G27" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
-    </row>
-    <row r="28" spans="2:10">
+      <c r="F27" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G27" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="21"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
@@ -1376,20 +1382,20 @@
       <c r="D28" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F28" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G28" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
-    </row>
-    <row r="29" spans="2:10">
+      <c r="F28" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G28" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="21"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
@@ -1399,20 +1405,20 @@
       <c r="D29" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F29" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G29" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="20"/>
-    </row>
-    <row r="30" spans="2:10">
+      <c r="F29" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G29" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="21"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
         <v>8</v>
       </c>
@@ -1422,20 +1428,20 @@
       <c r="D30" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F30" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G30" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="20"/>
-    </row>
-    <row r="31" spans="2:10">
+      <c r="F30" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G30" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="21"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
         <v>8</v>
       </c>
@@ -1445,20 +1451,20 @@
       <c r="D31" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F31" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G31" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="20"/>
-    </row>
-    <row r="32" spans="2:10">
+      <c r="F31" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G31" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="21"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
         <v>8</v>
       </c>
@@ -1468,20 +1474,20 @@
       <c r="D32" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F32" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G32" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="20"/>
-    </row>
-    <row r="33" spans="2:10">
+      <c r="F32" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G32" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="21"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
         <v>8</v>
       </c>
@@ -1491,20 +1497,20 @@
       <c r="D33" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F33" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G33" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="20"/>
-    </row>
-    <row r="34" spans="2:10">
+      <c r="F33" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G33" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="21"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
         <v>8</v>
       </c>
@@ -1514,20 +1520,20 @@
       <c r="D34" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F34" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G34" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="20"/>
-    </row>
-    <row r="35" spans="2:10">
+      <c r="F34" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G34" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="21"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
         <v>8</v>
       </c>
@@ -1537,20 +1543,20 @@
       <c r="D35" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F35" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G35" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="20"/>
-    </row>
-    <row r="36" spans="2:10">
+      <c r="F35" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G35" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="21"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
         <v>8</v>
       </c>
@@ -1560,20 +1566,20 @@
       <c r="D36" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E36" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F36" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G36" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="20"/>
-    </row>
-    <row r="37" spans="2:10">
+      <c r="F36" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G36" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="21"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
         <v>8</v>
       </c>
@@ -1583,20 +1589,20 @@
       <c r="D37" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F37" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G37" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="20"/>
-    </row>
-    <row r="38" spans="2:10">
+      <c r="F37" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G37" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="21"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
         <v>8</v>
       </c>
@@ -1606,20 +1612,20 @@
       <c r="D38" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="16" t="s">
+      <c r="E38" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F38" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G38" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="20"/>
-    </row>
-    <row r="39" spans="2:10">
+      <c r="F38" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G38" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="21"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
         <v>8</v>
       </c>
@@ -1629,20 +1635,20 @@
       <c r="D39" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F39" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G39" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="20"/>
-    </row>
-    <row r="40" spans="2:10">
+      <c r="F39" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G39" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="21"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
         <v>8</v>
       </c>
@@ -1652,20 +1658,20 @@
       <c r="D40" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F40" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G40" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="20"/>
-    </row>
-    <row r="41" spans="2:10">
+      <c r="F40" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G40" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="21"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
         <v>8</v>
       </c>
@@ -1675,20 +1681,20 @@
       <c r="D41" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E41" s="16" t="s">
+      <c r="E41" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F41" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G41" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="20"/>
-    </row>
-    <row r="42" spans="2:10">
+      <c r="F41" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G41" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="21"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
         <v>8</v>
       </c>
@@ -1698,20 +1704,20 @@
       <c r="D42" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E42" s="16" t="s">
+      <c r="E42" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F42" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G42" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="20"/>
-    </row>
-    <row r="43" spans="2:10">
+      <c r="F42" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G42" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="21"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="15" t="s">
         <v>8</v>
       </c>
@@ -1721,20 +1727,20 @@
       <c r="D43" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E43" s="16" t="s">
+      <c r="E43" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F43" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G43" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="20"/>
-    </row>
-    <row r="44" spans="2:10">
+      <c r="F43" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G43" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="21"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="15" t="s">
         <v>8</v>
       </c>
@@ -1744,20 +1750,20 @@
       <c r="D44" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E44" s="16" t="s">
+      <c r="E44" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F44" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G44" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="20"/>
-    </row>
-    <row r="45" spans="2:10">
+      <c r="F44" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G44" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="21"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="15" t="s">
         <v>8</v>
       </c>
@@ -1767,20 +1773,20 @@
       <c r="D45" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E45" s="16" t="s">
+      <c r="E45" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F45" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G45" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="20"/>
-    </row>
-    <row r="46" spans="2:10">
+      <c r="F45" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G45" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="21"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46" s="15" t="s">
         <v>8</v>
       </c>
@@ -1790,20 +1796,20 @@
       <c r="D46" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E46" s="16" t="s">
+      <c r="E46" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F46" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G46" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="20"/>
-    </row>
-    <row r="47" spans="2:10">
+      <c r="F46" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G46" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="21"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B47" s="15" t="s">
         <v>8</v>
       </c>
@@ -1813,20 +1819,20 @@
       <c r="D47" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E47" s="16" t="s">
+      <c r="E47" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F47" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G47" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="20"/>
-    </row>
-    <row r="48" spans="2:10">
+      <c r="F47" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G47" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="21"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48" s="15" t="s">
         <v>8</v>
       </c>
@@ -1836,20 +1842,20 @@
       <c r="D48" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E48" s="16" t="s">
+      <c r="E48" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F48" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G48" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="20"/>
-    </row>
-    <row r="49" spans="2:10">
+      <c r="F48" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G48" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="21"/>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B49" s="15" t="s">
         <v>8</v>
       </c>
@@ -1859,20 +1865,20 @@
       <c r="D49" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E49" s="16" t="s">
+      <c r="E49" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F49" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G49" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="20"/>
-    </row>
-    <row r="50" spans="2:10">
+      <c r="F49" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G49" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="21"/>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B50" s="15" t="s">
         <v>8</v>
       </c>
@@ -1882,20 +1888,20 @@
       <c r="D50" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E50" s="16" t="s">
+      <c r="E50" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F50" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G50" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="20"/>
-    </row>
-    <row r="51" spans="2:10">
+      <c r="F50" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G50" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="21"/>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B51" s="15" t="s">
         <v>8</v>
       </c>
@@ -1905,20 +1911,20 @@
       <c r="D51" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E51" s="16" t="s">
+      <c r="E51" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F51" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G51" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="20"/>
-    </row>
-    <row r="52" spans="2:10">
+      <c r="F51" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G51" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="21"/>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B52" s="15" t="s">
         <v>8</v>
       </c>
@@ -1928,20 +1934,20 @@
       <c r="D52" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E52" s="16" t="s">
+      <c r="E52" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F52" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G52" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H52" s="19"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="20"/>
-    </row>
-    <row r="53" spans="2:10">
+      <c r="F52" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G52" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="21"/>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B53" s="15" t="s">
         <v>8</v>
       </c>
@@ -1951,20 +1957,20 @@
       <c r="D53" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E53" s="16" t="s">
+      <c r="E53" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F53" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G53" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="20"/>
-    </row>
-    <row r="54" spans="2:10">
+      <c r="F53" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G53" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="21"/>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B54" s="15" t="s">
         <v>8</v>
       </c>
@@ -1974,20 +1980,20 @@
       <c r="D54" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E54" s="16" t="s">
+      <c r="E54" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F54" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G54" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="20"/>
-    </row>
-    <row r="55" spans="2:10">
+      <c r="F54" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G54" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H54" s="20"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="21"/>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B55" s="15" t="s">
         <v>8</v>
       </c>
@@ -1997,20 +2003,20 @@
       <c r="D55" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E55" s="16" t="s">
+      <c r="E55" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F55" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G55" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="20"/>
-    </row>
-    <row r="56" spans="2:10">
+      <c r="F55" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G55" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H55" s="20"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="21"/>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B56" s="15" t="s">
         <v>8</v>
       </c>
@@ -2020,20 +2026,20 @@
       <c r="D56" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E56" s="16" t="s">
+      <c r="E56" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F56" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G56" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H56" s="19"/>
-      <c r="I56" s="19"/>
-      <c r="J56" s="20"/>
-    </row>
-    <row r="57" spans="2:10">
+      <c r="F56" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G56" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H56" s="20"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="21"/>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B57" s="15" t="s">
         <v>8</v>
       </c>
@@ -2043,20 +2049,20 @@
       <c r="D57" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E57" s="16" t="s">
+      <c r="E57" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F57" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G57" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H57" s="19"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="20"/>
-    </row>
-    <row r="58" spans="2:10">
+      <c r="F57" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G57" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H57" s="20"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="21"/>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B58" s="15" t="s">
         <v>8</v>
       </c>
@@ -2066,20 +2072,20 @@
       <c r="D58" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E58" s="16" t="s">
+      <c r="E58" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F58" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G58" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="20"/>
-    </row>
-    <row r="59" spans="2:10">
+      <c r="F58" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G58" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H58" s="20"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="21"/>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B59" s="15" t="s">
         <v>8</v>
       </c>
@@ -2089,20 +2095,20 @@
       <c r="D59" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E59" s="16" t="s">
+      <c r="E59" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F59" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G59" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H59" s="19"/>
-      <c r="I59" s="19"/>
-      <c r="J59" s="20"/>
-    </row>
-    <row r="60" spans="2:10">
+      <c r="F59" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G59" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H59" s="20"/>
+      <c r="I59" s="20"/>
+      <c r="J59" s="21"/>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B60" s="15" t="s">
         <v>8</v>
       </c>
@@ -2112,20 +2118,20 @@
       <c r="D60" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E60" s="16" t="s">
+      <c r="E60" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F60" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G60" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H60" s="19"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="20"/>
-    </row>
-    <row r="61" spans="2:10">
+      <c r="F60" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G60" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H60" s="20"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="21"/>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B61" s="15" t="s">
         <v>8</v>
       </c>
@@ -2135,20 +2141,20 @@
       <c r="D61" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E61" s="16" t="s">
+      <c r="E61" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F61" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G61" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H61" s="19"/>
-      <c r="I61" s="19"/>
-      <c r="J61" s="20"/>
-    </row>
-    <row r="62" spans="2:10">
+      <c r="F61" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G61" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H61" s="20"/>
+      <c r="I61" s="20"/>
+      <c r="J61" s="21"/>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B62" s="15" t="s">
         <v>8</v>
       </c>
@@ -2158,20 +2164,20 @@
       <c r="D62" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E62" s="16" t="s">
+      <c r="E62" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F62" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G62" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H62" s="19"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="20"/>
-    </row>
-    <row r="63" spans="2:10">
+      <c r="F62" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G62" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H62" s="20"/>
+      <c r="I62" s="20"/>
+      <c r="J62" s="21"/>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B63" s="15" t="s">
         <v>8</v>
       </c>
@@ -2181,20 +2187,20 @@
       <c r="D63" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E63" s="16" t="s">
+      <c r="E63" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F63" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G63" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H63" s="19"/>
-      <c r="I63" s="19"/>
-      <c r="J63" s="20"/>
-    </row>
-    <row r="64" spans="2:10">
+      <c r="F63" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G63" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H63" s="20"/>
+      <c r="I63" s="20"/>
+      <c r="J63" s="21"/>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B64" s="15" t="s">
         <v>8</v>
       </c>
@@ -2204,20 +2210,20 @@
       <c r="D64" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E64" s="16" t="s">
+      <c r="E64" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F64" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G64" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H64" s="19"/>
-      <c r="I64" s="19"/>
-      <c r="J64" s="20"/>
-    </row>
-    <row r="65" spans="2:10">
+      <c r="F64" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G64" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H64" s="20"/>
+      <c r="I64" s="20"/>
+      <c r="J64" s="21"/>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B65" s="15" t="s">
         <v>8</v>
       </c>
@@ -2227,20 +2233,20 @@
       <c r="D65" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E65" s="16" t="s">
+      <c r="E65" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F65" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G65" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H65" s="19"/>
-      <c r="I65" s="19"/>
-      <c r="J65" s="20"/>
-    </row>
-    <row r="66" spans="2:10">
+      <c r="F65" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G65" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H65" s="20"/>
+      <c r="I65" s="20"/>
+      <c r="J65" s="21"/>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B66" s="15" t="s">
         <v>8</v>
       </c>
@@ -2250,20 +2256,20 @@
       <c r="D66" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E66" s="16" t="s">
+      <c r="E66" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F66" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G66" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H66" s="19"/>
-      <c r="I66" s="19"/>
-      <c r="J66" s="20"/>
-    </row>
-    <row r="67" spans="2:10">
+      <c r="F66" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G66" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H66" s="20"/>
+      <c r="I66" s="20"/>
+      <c r="J66" s="21"/>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B67" s="15" t="s">
         <v>8</v>
       </c>
@@ -2273,20 +2279,20 @@
       <c r="D67" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E67" s="16" t="s">
+      <c r="E67" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F67" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G67" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H67" s="19"/>
-      <c r="I67" s="19"/>
-      <c r="J67" s="20"/>
-    </row>
-    <row r="68" spans="2:10">
+      <c r="F67" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G67" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H67" s="20"/>
+      <c r="I67" s="20"/>
+      <c r="J67" s="21"/>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B68" s="15" t="s">
         <v>8</v>
       </c>
@@ -2296,20 +2302,20 @@
       <c r="D68" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E68" s="16" t="s">
+      <c r="E68" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F68" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G68" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H68" s="19"/>
-      <c r="I68" s="19"/>
-      <c r="J68" s="20"/>
-    </row>
-    <row r="69" spans="2:10">
+      <c r="F68" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G68" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H68" s="20"/>
+      <c r="I68" s="20"/>
+      <c r="J68" s="21"/>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B69" s="15" t="s">
         <v>8</v>
       </c>
@@ -2319,20 +2325,20 @@
       <c r="D69" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E69" s="16" t="s">
+      <c r="E69" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F69" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G69" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H69" s="19"/>
-      <c r="I69" s="19"/>
-      <c r="J69" s="20"/>
-    </row>
-    <row r="70" spans="2:10">
+      <c r="F69" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G69" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H69" s="20"/>
+      <c r="I69" s="20"/>
+      <c r="J69" s="21"/>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B70" s="15" t="s">
         <v>8</v>
       </c>
@@ -2342,20 +2348,20 @@
       <c r="D70" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E70" s="16" t="s">
+      <c r="E70" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F70" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G70" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H70" s="19"/>
-      <c r="I70" s="19"/>
-      <c r="J70" s="20"/>
-    </row>
-    <row r="71" spans="2:10">
+      <c r="F70" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G70" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H70" s="20"/>
+      <c r="I70" s="20"/>
+      <c r="J70" s="21"/>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B71" s="15" t="s">
         <v>8</v>
       </c>
@@ -2365,20 +2371,20 @@
       <c r="D71" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E71" s="16" t="s">
+      <c r="E71" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F71" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G71" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H71" s="19"/>
-      <c r="I71" s="19"/>
-      <c r="J71" s="20"/>
-    </row>
-    <row r="72" spans="2:10">
+      <c r="F71" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G71" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H71" s="20"/>
+      <c r="I71" s="20"/>
+      <c r="J71" s="21"/>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B72" s="15" t="s">
         <v>8</v>
       </c>
@@ -2388,58 +2394,58 @@
       <c r="D72" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E72" s="16" t="s">
+      <c r="E72" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F72" s="18">
+      <c r="F72" s="19">
         <v>29166</v>
       </c>
-      <c r="G72" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H72" s="19"/>
-      <c r="I72" s="19"/>
-      <c r="J72" s="20"/>
-    </row>
-    <row r="73" spans="2:10">
-      <c r="B73" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C73" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="D73" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E73" s="22" t="s">
+      <c r="G72" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H72" s="20"/>
+      <c r="I72" s="20"/>
+      <c r="J72" s="21"/>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B73" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D73" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E73" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="F73" s="24">
+      <c r="F73" s="26">
         <v>29166</v>
       </c>
-      <c r="G73" s="24">
-        <v>781242</v>
-      </c>
-      <c r="H73" s="25"/>
-      <c r="I73" s="25"/>
-      <c r="J73" s="26"/>
-    </row>
-    <row r="78" spans="2:10">
-      <c r="B78" s="32" t="s">
+      <c r="G73" s="26">
+        <v>781242</v>
+      </c>
+      <c r="H73" s="27"/>
+      <c r="I73" s="27"/>
+      <c r="J73" s="28"/>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B78" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="C78" s="32"/>
+      <c r="C78" s="34"/>
       <c r="H78" s="1" t="s">
         <v>51</v>
       </c>
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
     </row>
-    <row r="79" spans="2:10">
-      <c r="B79" s="32" t="s">
+    <row r="79" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B79" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="C79" s="32"/>
+      <c r="C79" s="34"/>
       <c r="H79" s="1" t="s">
         <v>52</v>
       </c>
